--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H3")</t>
+          <t>jx:area(lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>盘点差异查询-汇总</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.stocktakingNumHandle}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.costAmountHandle}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,7 +237,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -254,7 +273,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,14 +583,16 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="18.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="21.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -585,8 +606,8 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -735,8 +756,12 @@
       <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -885,6 +910,12 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -961,7 +992,7 @@
     <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>${obj.costAmountHandle}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际处理数量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际处理金额（成本价）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +591,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>

--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J3")</t>
+          <t>jx:area(lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -137,13 +137,35 @@
   </si>
   <si>
     <t>实际处理金额（成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(D3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(E3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -263,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,12 +306,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,7 +402,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -591,7 +684,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,7 +1018,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="J3")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
@@ -143,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,12 +158,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -169,6 +173,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -176,22 +181,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB76"/>
+  <dimension ref="A1:EB75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,7 +937,7 @@
     <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -997,7 +1006,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J4")</t>
+          <t>jx:area(lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -137,25 +139,6 @@
   </si>
   <si>
     <t>实际处理金额（成本价）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(D3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -163,9 +146,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,12 +158,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -191,6 +173,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,22 +181,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -285,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,83 +293,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -402,7 +318,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -437,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB76"/>
+  <dimension ref="A1:EB75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,31 +934,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
+    <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1006,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
